--- a/results/mp/tinybert/corona/confidence/126/topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/topk-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,76 +58,79 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
+    <t>thank</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>better</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>please</t>
@@ -488,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,7 +502,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -557,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.88</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -575,19 +578,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -599,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -607,13 +610,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8235294117647058</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -625,19 +628,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -649,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -657,13 +660,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7337662337662337</v>
+        <v>0.6095890410958904</v>
       </c>
       <c r="C5">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="D5">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -675,19 +678,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -699,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -707,13 +710,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3304721030042919</v>
+        <v>0.1841085271317829</v>
       </c>
       <c r="C6">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D6">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -725,19 +728,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>156</v>
+        <v>421</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6">
-        <v>0.925</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -749,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -757,13 +760,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1976744186046512</v>
+        <v>0.1798941798941799</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -775,19 +778,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.8823529411764706</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="M7">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -799,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -807,13 +810,13 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8518518518518519</v>
+        <v>0.8125</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -825,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -833,7 +836,7 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8392857142857143</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
         <v>47</v>
@@ -851,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -859,13 +862,13 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M10">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -877,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -885,13 +888,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.8275862068965517</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -903,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -911,13 +914,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.8235294117647058</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L12">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="M12">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -929,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -937,13 +940,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.8235294117647058</v>
+        <v>0.75</v>
       </c>
       <c r="L13">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M13">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -955,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -963,13 +966,13 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7586206896551724</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L14">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="M14">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -981,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -989,13 +992,13 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.72</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="M15">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1007,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1015,13 +1018,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.717948717948718</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1033,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1041,13 +1044,13 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.7083333333333334</v>
+        <v>0.6875</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1059,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1067,13 +1070,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6438356164383562</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L18">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1085,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1093,13 +1096,13 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6153846153846154</v>
+        <v>0.62</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1111,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1119,13 +1122,13 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6060606060606061</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1137,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1145,13 +1148,13 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L21">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="M21">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1163,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1171,13 +1174,13 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L22">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1189,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1197,13 +1200,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.4929577464788732</v>
+        <v>0.5378590078328982</v>
       </c>
       <c r="L23">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="M23">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1215,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>108</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1223,13 +1226,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.4791666666666667</v>
+        <v>0.4323529411764706</v>
       </c>
       <c r="L24">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="M24">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1241,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>75</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1249,13 +1252,13 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.4651162790697674</v>
+        <v>0.4101694915254237</v>
       </c>
       <c r="L25">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="M25">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1267,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>69</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1275,13 +1278,13 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.4285714285714285</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1293,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1301,13 +1304,13 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.3695652173913043</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1319,7 +1322,33 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>58</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28">
+        <v>0.3263598326359833</v>
+      </c>
+      <c r="L28">
+        <v>78</v>
+      </c>
+      <c r="M28">
+        <v>78</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
